--- a/data/trans_orig/P36_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC6BFFF-6F1B-47A6-BB6F-4CCEB6FFC449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A32D29-14C0-45D7-AAAF-18639CD1F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3300A68-6F9B-4ABA-A880-0AD96CD7F4BA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{933F6E55-A22C-4412-B437-CAF12BDE7FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
   <si>
     <t>Población según adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -71,325 +71,334 @@
     <t>30,08%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
   </si>
   <si>
     <t>57,81%</t>
   </si>
   <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
     <t>54,81%</t>
   </si>
   <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>12,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -804,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC22B00-20DB-4367-889B-73F5F72845C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B2B781-6805-4DFA-BFF4-5B3AC7F09510}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1627,13 +1636,13 @@
         <v>3686295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,13 +1657,13 @@
         <v>385114</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>525</v>
@@ -1663,13 +1672,13 @@
         <v>410780</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
         <v>888</v>
@@ -1678,13 +1687,13 @@
         <v>795894</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1740,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54A32D29-14C0-45D7-AAAF-18639CD1F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19759D7D-7B57-4639-A17F-30B3CA8A7EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{933F6E55-A22C-4412-B437-CAF12BDE7FF5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34A23AE7-AC85-4302-B85C-CCBA7920D7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B2B781-6805-4DFA-BFF4-5B3AC7F09510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E3DD4D-2BD5-4DC3-A188-4F4F4AB4DA0D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
